--- a/Team-Data/2013-14/3-28-2013-14.xlsx
+++ b/Team-Data/2013-14/3-28-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,49 +811,49 @@
         <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -807,7 +874,7 @@
         <v>25</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="n">
-        <v>0.319</v>
+        <v>0.324</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,10 +933,10 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K3" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L3" t="n">
         <v>6.7</v>
@@ -887,19 +954,19 @@
         <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S3" t="n">
         <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.2</v>
@@ -908,10 +975,10 @@
         <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>21.3</v>
@@ -920,13 +987,13 @@
         <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC3" t="n">
         <v>-4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -941,13 +1008,13 @@
         <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -962,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -971,19 +1038,19 @@
         <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>25</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.535</v>
+        <v>0.529</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J4" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L4" t="n">
         <v>8.5</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
         <v>18.8</v>
@@ -1081,10 +1148,10 @@
         <v>38.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
@@ -1093,22 +1160,22 @@
         <v>3.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM4" t="n">
         <v>11</v>
       </c>
-      <c r="AL4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>10</v>
-      </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1159,13 +1226,13 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -1212,34 +1279,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
         <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.479</v>
+        <v>0.486</v>
       </c>
       <c r="H5" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I5" t="n">
         <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N5" t="n">
         <v>0.352</v>
@@ -1248,7 +1315,7 @@
         <v>17.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q5" t="n">
         <v>0.738</v>
@@ -1257,7 +1324,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
@@ -1272,28 +1339,28 @@
         <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC5" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,22 +1369,22 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
         <v>21</v>
@@ -1335,10 +1402,10 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>18</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M6" t="n">
         <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
         <v>0.775</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S6" t="n">
         <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U6" t="n">
         <v>22.3</v>
@@ -1454,7 +1521,7 @@
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
         <v>6.2</v>
@@ -1463,25 +1530,25 @@
         <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
         <v>12</v>
       </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>4</v>
@@ -1499,34 +1566,34 @@
         <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN6" t="n">
         <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
         <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="n">
-        <v>0.392</v>
+        <v>0.397</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
@@ -1594,43 +1661,43 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.433</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O7" t="n">
         <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R7" t="n">
         <v>12.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
@@ -1651,7 +1718,7 @@
         <v>97.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1672,10 +1739,10 @@
         <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1693,19 +1760,19 @@
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1887,10 +1954,10 @@
         <v>26</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1899,7 +1966,7 @@
         <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
         <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J9" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L9" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
         <v>23.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R9" t="n">
         <v>12.2</v>
@@ -1988,46 +2055,46 @@
         <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>29</v>
@@ -2042,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2063,13 +2130,13 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2078,13 +2145,13 @@
         <v>18</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2093,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>0.361</v>
+        <v>0.366</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.449</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.317</v>
+        <v>0.32</v>
       </c>
       <c r="O10" t="n">
         <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.666</v>
+        <v>0.665</v>
       </c>
       <c r="R10" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T10" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
@@ -2191,16 +2258,16 @@
         <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.2</v>
+        <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2215,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2248,31 +2315,31 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
       </c>
       <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB10" t="n">
         <v>16</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>17</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
         <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2334,13 +2401,13 @@
         <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
         <v>0.752</v>
@@ -2355,34 +2422,34 @@
         <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>4.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2397,7 +2464,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,16 +2500,16 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>5.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2615,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
         <v>52</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>0.712</v>
+        <v>0.722</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J13" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
         <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
         <v>0.785</v>
@@ -2719,7 +2786,7 @@
         <v>45.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V13" t="n">
         <v>15.2</v>
@@ -2728,7 +2795,7 @@
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y13" t="n">
         <v>4.7</v>
@@ -2740,16 +2807,16 @@
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
@@ -2761,13 +2828,13 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL13" t="n">
         <v>24</v>
@@ -2782,10 +2849,10 @@
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2794,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
@@ -2809,16 +2876,16 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>15</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,10 +3007,10 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2958,10 +3025,10 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
@@ -3062,55 +3129,55 @@
         <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O15" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P15" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" t="n">
         <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="T15" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U15" t="n">
         <v>23.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
         <v>102.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3125,25 +3192,25 @@
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3155,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
         <v>23</v>
@@ -3164,22 +3231,22 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -3214,22 +3281,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
         <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>0.597</v>
+        <v>0.606</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J16" t="n">
         <v>81.59999999999999</v>
@@ -3244,31 +3311,31 @@
         <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P16" t="n">
         <v>20.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R16" t="n">
         <v>11.4</v>
       </c>
       <c r="S16" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
         <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W16" t="n">
         <v>7.6</v>
@@ -3277,31 +3344,31 @@
         <v>4.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB16" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3331,22 +3398,22 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J17" t="n">
         <v>76.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
@@ -3426,7 +3493,7 @@
         <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O17" t="n">
         <v>17.7</v>
@@ -3441,16 +3508,16 @@
         <v>7.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>9</v>
@@ -3462,28 +3529,28 @@
         <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
@@ -3504,13 +3571,13 @@
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3692,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>19</v>
@@ -3704,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
         <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>87.5</v>
+        <v>87.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R19" t="n">
         <v>12.6</v>
       </c>
       <c r="S19" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T19" t="n">
         <v>44.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V19" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W19" t="n">
         <v>8.699999999999999</v>
@@ -3826,19 +3893,19 @@
         <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.9</v>
+        <v>106.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3853,13 +3920,13 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
@@ -3889,10 +3956,10 @@
         <v>8</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3901,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
         <v>3</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="n">
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0.444</v>
+        <v>0.437</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,7 +4027,7 @@
         <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.46</v>
@@ -3972,13 +4039,13 @@
         <v>15.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
         <v>18.1</v>
       </c>
       <c r="P20" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q20" t="n">
         <v>0.771</v>
@@ -3987,19 +4054,19 @@
         <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
         <v>42.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X20" t="n">
         <v>6.4</v>
@@ -4011,34 +4078,34 @@
         <v>22.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4053,10 +4120,10 @@
         <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4068,10 +4135,10 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>0.411</v>
+        <v>0.417</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4145,10 +4212,10 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L21" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M21" t="n">
         <v>24.6</v>
@@ -4157,19 +4224,19 @@
         <v>0.371</v>
       </c>
       <c r="O21" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P21" t="n">
         <v>20.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
         <v>40.7</v>
@@ -4184,10 +4251,10 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z21" t="n">
         <v>22.1</v>
@@ -4196,13 +4263,13 @@
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.8</v>
+        <v>-1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4214,13 +4281,13 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>17</v>
@@ -4232,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4268,13 +4335,13 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
         <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
         <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.736</v>
+        <v>0.732</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L22" t="n">
         <v>8.1</v>
@@ -4336,7 +4403,7 @@
         <v>22.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O22" t="n">
         <v>19.9</v>
@@ -4348,16 +4415,16 @@
         <v>0.803</v>
       </c>
       <c r="R22" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
         <v>34.3</v>
       </c>
       <c r="T22" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>106.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4426,13 +4493,13 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4453,7 +4520,7 @@
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -4488,19 +4555,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
         <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.288</v>
+        <v>0.278</v>
       </c>
       <c r="H23" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I23" t="n">
         <v>36.9</v>
@@ -4521,31 +4588,31 @@
         <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P23" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q23" t="n">
         <v>0.766</v>
       </c>
       <c r="R23" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4554,19 +4621,19 @@
         <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4581,13 +4648,13 @@
         <v>3</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4602,7 +4669,7 @@
         <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
         <v>12</v>
@@ -4611,10 +4678,10 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4632,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4793,7 +4860,7 @@
         <v>8</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4820,7 +4887,7 @@
         <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="n">
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,19 +4937,19 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
         <v>18.6</v>
@@ -4891,16 +4958,16 @@
         <v>24.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U25" t="n">
         <v>19.3</v>
@@ -4912,40 +4979,40 @@
         <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA25" t="n">
         <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>12</v>
@@ -4954,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
@@ -4972,13 +5039,13 @@
         <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
@@ -4993,16 +5060,16 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
         <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.635</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,28 +5119,28 @@
         <v>39</v>
       </c>
       <c r="J26" t="n">
-        <v>87.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
         <v>9.5</v>
       </c>
       <c r="M26" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P26" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="R26" t="n">
         <v>12.6</v>
@@ -5085,31 +5152,31 @@
         <v>46.3</v>
       </c>
       <c r="U26" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V26" t="n">
         <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.6</v>
+        <v>106.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5124,16 +5191,16 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5142,13 +5209,13 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5184,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -5216,49 +5283,49 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>0.347</v>
+        <v>0.352</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
         <v>82.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M27" t="n">
         <v>18.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P27" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R27" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S27" t="n">
         <v>32.2</v>
@@ -5267,7 +5334,7 @@
         <v>44.3</v>
       </c>
       <c r="U27" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V27" t="n">
         <v>15.4</v>
@@ -5279,7 +5346,7 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z27" t="n">
         <v>22.9</v>
@@ -5288,13 +5355,13 @@
         <v>23.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,16 +5373,16 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5327,7 +5394,7 @@
         <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP27" t="n">
         <v>4</v>
@@ -5336,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS27" t="n">
         <v>13</v>
@@ -5348,19 +5415,19 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>3</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
         <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.401</v>
+        <v>0.398</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.785</v>
@@ -5443,40 +5510,40 @@
         <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T28" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U28" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA28" t="n">
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.7</v>
+        <v>105.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>27</v>
@@ -5545,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
         <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5604,31 +5671,31 @@
         <v>0.443</v>
       </c>
       <c r="L29" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M29" t="n">
         <v>23</v>
       </c>
       <c r="N29" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O29" t="n">
         <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T29" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U29" t="n">
         <v>21.3</v>
@@ -5646,19 +5713,19 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC29" t="n">
         <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5682,13 +5749,13 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5697,22 +5764,22 @@
         <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW29" t="n">
         <v>23</v>
@@ -5721,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="n">
         <v>23</v>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="n">
-        <v>0.315</v>
+        <v>0.319</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.442</v>
@@ -5792,34 +5859,34 @@
         <v>19.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O30" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P30" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X30" t="n">
         <v>4.5</v>
@@ -5828,10 +5895,10 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB30" t="n">
         <v>94.40000000000001</v>
@@ -5840,7 +5907,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5888,10 +5955,10 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
         <v>13</v>
@@ -5903,13 +5970,13 @@
         <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" t="n">
         <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J31" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L31" t="n">
         <v>8.1</v>
       </c>
       <c r="M31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N31" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
         <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
@@ -5998,7 +6065,7 @@
         <v>23.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W31" t="n">
         <v>8.300000000000001</v>
@@ -6007,7 +6074,7 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
         <v>20.5</v>
@@ -6016,13 +6083,13 @@
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6037,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6067,10 +6134,10 @@
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6085,7 +6152,7 @@
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>16</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-28-2013-14</t>
+          <t>2014-03-28</t>
         </is>
       </c>
     </row>
